--- a/01_input/plant_data_combined.xlsx
+++ b/01_input/plant_data_combined.xlsx
@@ -775,7 +775,7 @@
         <v>56.525</v>
       </c>
       <c r="H6" t="n">
-        <v>114.5</v>
+        <v>125</v>
       </c>
       <c r="I6" t="n">
         <v>1.66666666666667</v>
